--- a/burndownChartSprint3.xlsx
+++ b/burndownChartSprint3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/jerryrn_byui_edu/Documents/Desktop/CSE 310/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph Earl\Desktop\New folder\Trophy-Hoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{4245E326-3DD7-45CB-AAF1-D89DA152BC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{902371E5-CA5F-4FF2-8BC7-D04EED3C4F60}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4CAB24-67E2-4520-A177-0211559D6940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Iteration" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -186,10 +197,10 @@
     <t>Main Menu Prototype - Jerry Nelson &amp; Braydon Roberts</t>
   </si>
   <si>
-    <t>Dungeon Level Design - Joseph Earl</t>
+    <t>Game Mode Organization and Polishing - Austin</t>
   </si>
   <si>
-    <t>Game Mode Organization and Polishing - Austin</t>
+    <t>Dungeon Level Concept - Joseph Earl</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1045,7 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -1692,7 +1703,7 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -3752,19 +3763,19 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="16" width="5.7109375" customWidth="1"/>
-    <col min="17" max="22" width="5.7109375" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="16" width="5.6640625" customWidth="1"/>
+    <col min="17" max="22" width="5.6640625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="37"/>
       <c r="B1" s="37"/>
       <c r="C1" s="6"/>
@@ -3790,7 +3801,7 @@
       <c r="W1" s="15"/>
       <c r="X1" s="16"/>
     </row>
-    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="40" t="s">
@@ -3818,7 +3829,7 @@
       <c r="W2" s="15"/>
       <c r="X2" s="16"/>
     </row>
-    <row r="3" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="40" t="s">
@@ -3849,7 +3860,7 @@
       <c r="W3" s="15"/>
       <c r="X3" s="16"/>
     </row>
-    <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="40" t="s">
@@ -3877,7 +3888,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="16"/>
     </row>
-    <row r="5" spans="1:24" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="97.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
@@ -3905,7 +3916,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="16"/>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
         <v>1</v>
       </c>
@@ -3937,7 +3948,7 @@
       </c>
       <c r="X6" s="42"/>
     </row>
-    <row r="7" spans="1:24" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -4011,7 +4022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
@@ -4047,14 +4058,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="21">
         <v>70</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="22">
+        <v>13</v>
+      </c>
       <c r="D9" s="23"/>
       <c r="E9" s="22"/>
       <c r="F9" s="23"/>
@@ -4076,16 +4089,16 @@
       <c r="V9" s="23"/>
       <c r="W9" s="28">
         <f t="shared" ref="W9:W37" si="0">B9-SUM(C9:V9)</f>
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="X9" s="17">
         <f>IFERROR(1-(W9/B9),"")</f>
-        <v>0</v>
+        <v>0.18571428571428572</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="21">
         <v>16</v>
@@ -4119,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -4153,7 +4166,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -4187,7 +4200,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -4221,7 +4234,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -4255,7 +4268,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -4289,7 +4302,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -4323,7 +4336,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -4357,7 +4370,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -4391,7 +4404,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -4425,7 +4438,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -4459,7 +4472,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
@@ -4493,7 +4506,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
@@ -4527,7 +4540,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
@@ -4561,7 +4574,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>16</v>
       </c>
@@ -4595,7 +4608,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
@@ -4629,7 +4642,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -4663,7 +4676,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>19</v>
       </c>
@@ -4697,7 +4710,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>20</v>
       </c>
@@ -4731,7 +4744,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>21</v>
       </c>
@@ -4765,7 +4778,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>22</v>
       </c>
@@ -4799,7 +4812,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>23</v>
       </c>
@@ -4833,7 +4846,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>24</v>
       </c>
@@ -4867,7 +4880,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
         <v>25</v>
       </c>
@@ -4901,7 +4914,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
         <v>26</v>
       </c>
@@ -4935,7 +4948,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
@@ -4969,7 +4982,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
@@ -5003,7 +5016,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>29</v>
       </c>
@@ -5037,7 +5050,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
         <v>30</v>
       </c>
@@ -5045,9 +5058,9 @@
         <f>SUM(B8:B37)</f>
         <v>98</v>
       </c>
-      <c r="C38" s="11" t="e">
+      <c r="C38" s="11">
         <f>IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
-        <v>#N/A</v>
+        <v>85</v>
       </c>
       <c r="D38" s="11" t="e">
         <f t="shared" ref="D38:V38" si="2">IFERROR(IF(C38-SUM(D8:D37)=C38,NA(),C38-SUM(D8:D37)),NA())</f>
@@ -5127,14 +5140,14 @@
       </c>
       <c r="W38" s="35">
         <f>SUM(W8:W37)</f>
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="X38" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.13265306122448983</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="8" t="s">
         <v>31</v>
       </c>
@@ -5225,7 +5238,7 @@
       <c r="W39" s="31"/>
       <c r="X39" s="32"/>
     </row>
-    <row r="40" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:B2"/>
@@ -5289,7 +5302,7 @@
       <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/burndownChartSprint3.xlsx
+++ b/burndownChartSprint3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austi\OneDrive\Desktop\Trophyyyy\Trophy-Hoard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph Earl\Desktop\New folder\Trophy-Hoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC95CB4F-0A7A-4B88-ACC5-9E91F6A3EF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE69B16-1430-42C5-BFA8-01AAC85DC2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Iteration" sheetId="1" r:id="rId1"/>
@@ -736,24 +736,6 @@
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -855,6 +837,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1123,43 +1123,43 @@
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,43 +1709,43 @@
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2561,1536 +2561,1562 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AA12" sqref="AA12"/>
+      <selection pane="bottomRight" activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="16" width="5.7109375" customWidth="1"/>
-    <col min="17" max="22" width="5.7109375" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="16" width="5.6640625" customWidth="1"/>
+    <col min="17" max="22" width="5.6640625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="9"/>
+    <row r="1" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="9"/>
+    <row r="2" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="10">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="4">
         <f>B38</f>
         <v>110</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="9"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="9"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:24" ht="97.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="9"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="1" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="1"/>
+      <c r="X6" s="40"/>
     </row>
-    <row r="7" spans="1:24" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:24" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="6">
         <v>3</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="6">
         <v>4</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="6">
         <v>5</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="6">
         <v>6</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="6">
         <v>7</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="6">
         <v>8</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="6">
         <v>9</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="6">
         <v>10</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="6">
         <v>11</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="6">
         <v>12</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="6">
         <v>13</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="6">
         <v>14</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="6">
         <v>15</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="6">
         <v>16</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="6">
         <v>17</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="6">
         <v>18</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="6">
         <v>19</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="6">
         <v>20</v>
       </c>
-      <c r="W7" s="14" t="s">
+      <c r="W7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="X7" s="15" t="s">
+      <c r="X7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="11">
         <v>24</v>
       </c>
-      <c r="C8" s="18">
-        <v>0</v>
-      </c>
-      <c r="D8" s="19">
-        <v>0</v>
-      </c>
-      <c r="E8" s="18">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18">
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
         <v>12</v>
       </c>
-      <c r="H8" s="19">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18">
-        <v>0</v>
-      </c>
-      <c r="J8" s="19">
-        <v>0</v>
-      </c>
-      <c r="K8" s="18">
-        <v>0</v>
-      </c>
-      <c r="L8" s="19">
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
         <v>10</v>
       </c>
-      <c r="M8" s="18">
-        <v>0</v>
-      </c>
-      <c r="N8" s="19">
-        <v>0</v>
-      </c>
-      <c r="O8" s="18">
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="13">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12">
         <v>-1</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="13">
         <v>3</v>
       </c>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20">
+      <c r="Q8" s="12"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="14">
         <f t="shared" ref="W8:W37" si="0">B8-SUM(C8:V8)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="21">
+      <c r="X8" s="15">
         <f t="shared" ref="X8:X38" si="1">IFERROR(1-(W8/B8),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="17">
         <v>70</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="18">
         <v>13</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="26">
+      <c r="D9" s="19">
+        <v>6</v>
+      </c>
+      <c r="E9" s="18">
+        <v>5</v>
+      </c>
+      <c r="F9" s="19">
+        <v>3</v>
+      </c>
+      <c r="G9" s="18">
+        <v>4</v>
+      </c>
+      <c r="H9" s="19">
+        <v>5</v>
+      </c>
+      <c r="I9" s="18">
+        <v>3</v>
+      </c>
+      <c r="J9" s="19">
+        <v>5</v>
+      </c>
+      <c r="K9" s="18">
+        <v>4</v>
+      </c>
+      <c r="L9" s="19">
+        <v>4</v>
+      </c>
+      <c r="M9" s="18">
+        <v>4</v>
+      </c>
+      <c r="N9" s="19">
+        <v>5</v>
+      </c>
+      <c r="O9" s="18">
+        <v>3</v>
+      </c>
+      <c r="P9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="20">
         <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="X9" s="21">
+        <v>6</v>
+      </c>
+      <c r="X9" s="15">
         <f t="shared" si="1"/>
-        <v>0.18571428571428572</v>
+        <v>0.91428571428571426</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="17">
         <v>16</v>
       </c>
-      <c r="C10" s="24">
-        <v>0</v>
-      </c>
-      <c r="D10" s="25">
-        <v>0</v>
-      </c>
-      <c r="E10" s="24">
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
         <v>3</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="19">
         <v>2</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="18">
         <v>3</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="19">
         <v>1</v>
       </c>
-      <c r="I10" s="24">
-        <v>0</v>
-      </c>
-      <c r="J10" s="25">
-        <v>0</v>
-      </c>
-      <c r="K10" s="24">
-        <v>0</v>
-      </c>
-      <c r="L10" s="25">
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+      <c r="L10" s="19">
         <v>3</v>
       </c>
-      <c r="M10" s="24">
-        <v>0</v>
-      </c>
-      <c r="N10" s="25">
-        <v>0</v>
-      </c>
-      <c r="O10" s="24">
+      <c r="M10" s="18">
+        <v>0</v>
+      </c>
+      <c r="N10" s="19">
+        <v>0</v>
+      </c>
+      <c r="O10" s="18">
         <v>1</v>
       </c>
-      <c r="P10" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="26">
+      <c r="P10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="X10" s="21">
+      <c r="X10" s="15">
         <f t="shared" si="1"/>
         <v>0.8125</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="26">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X11" s="21" t="str">
+      <c r="X11" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="26">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X12" s="21" t="str">
+      <c r="X12" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="26">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X13" s="21" t="str">
+      <c r="X13" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="26">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X14" s="21" t="str">
+      <c r="X14" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="26">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X15" s="21" t="str">
+      <c r="X15" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="26">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X16" s="21" t="str">
+      <c r="X16" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="26">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X17" s="21" t="str">
+      <c r="X17" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="26">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X18" s="21" t="str">
+      <c r="X18" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="26">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X19" s="21" t="str">
+      <c r="X19" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="26">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X20" s="21" t="str">
+      <c r="X20" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="26">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X21" s="21" t="str">
+      <c r="X21" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="26">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X22" s="21" t="str">
+      <c r="X22" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="26">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X23" s="21" t="str">
+      <c r="X23" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+    <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="26">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X24" s="21" t="str">
+      <c r="X24" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="26">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X25" s="21" t="str">
+      <c r="X25" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+    <row r="26" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="26">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X26" s="21" t="str">
+      <c r="X26" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+    <row r="27" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="26">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X27" s="21" t="str">
+      <c r="X27" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="26">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X28" s="21" t="str">
+      <c r="X28" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
+    <row r="29" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="26">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X29" s="21" t="str">
+      <c r="X29" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+    <row r="30" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="26">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X30" s="21" t="str">
+      <c r="X30" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="26">
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X31" s="21" t="str">
+      <c r="X31" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
+    <row r="32" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="26">
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X32" s="21" t="str">
+      <c r="X32" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
+    <row r="33" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="26">
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X33" s="21" t="str">
+      <c r="X33" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
+    <row r="34" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="26">
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X34" s="21" t="str">
+      <c r="X34" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
+    <row r="35" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="26">
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X35" s="21" t="str">
+      <c r="X35" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
+    <row r="36" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="26">
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X36" s="21" t="str">
+      <c r="X36" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="27" t="s">
+    <row r="37" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="31">
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X37" s="32" t="str">
+      <c r="X37" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
+    <row r="38" spans="1:24" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A38" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="34">
+      <c r="B38" s="28">
         <f>SUM(B8:B37)</f>
         <v>110</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="29">
         <f t="shared" ref="C38:V38" si="2">IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
         <v>97</v>
       </c>
-      <c r="D38" s="35" t="e">
+      <c r="D38" s="29">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="E38" s="29">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="F38" s="29">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="G38" s="29">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="H38" s="29">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="I38" s="29">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J38" s="29">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="K38" s="29">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="L38" s="29">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="M38" s="29">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N38" s="29">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="O38" s="29">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="P38" s="29">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q38" s="29" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="E38" s="35" t="e">
+      <c r="R38" s="29" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="F38" s="35" t="e">
+      <c r="S38" s="29" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G38" s="35" t="e">
+      <c r="T38" s="29" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H38" s="35" t="e">
+      <c r="U38" s="29" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="I38" s="35" t="e">
+      <c r="V38" s="29" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="J38" s="35" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K38" s="35" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L38" s="35" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M38" s="35" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N38" s="35" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O38" s="35" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P38" s="35" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q38" s="35" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R38" s="35" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S38" s="35" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T38" s="35" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U38" s="35" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V38" s="35" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W38" s="36">
+      <c r="W38" s="30">
         <f>SUM(W8:W37)</f>
-        <v>60</v>
-      </c>
-      <c r="X38" s="37">
+        <v>9</v>
+      </c>
+      <c r="X38" s="31">
         <f t="shared" si="1"/>
-        <v>0.45454545454545459</v>
+        <v>0.91818181818181821</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="38" t="s">
+    <row r="39" spans="1:24" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A39" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="39">
+      <c r="B39" s="33">
         <f>SUM(B8:B37)</f>
         <v>110</v>
       </c>
-      <c r="C39" s="40">
+      <c r="C39" s="34">
         <f t="shared" ref="C39:V39" si="3">IFERROR((IF(B39-($B$38/$G$4) &lt; 0,"-", B39-($B$38/$G$4))),IFERROR(B39-($B$38/20),"-"))</f>
         <v>104.5</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="34">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="34">
         <f t="shared" si="3"/>
         <v>93.5</v>
       </c>
-      <c r="F39" s="40">
+      <c r="F39" s="34">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="G39" s="40">
+      <c r="G39" s="34">
         <f t="shared" si="3"/>
         <v>82.5</v>
       </c>
-      <c r="H39" s="40">
+      <c r="H39" s="34">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="I39" s="40">
+      <c r="I39" s="34">
         <f t="shared" si="3"/>
         <v>71.5</v>
       </c>
-      <c r="J39" s="40">
+      <c r="J39" s="34">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="K39" s="40">
+      <c r="K39" s="34">
         <f t="shared" si="3"/>
         <v>60.5</v>
       </c>
-      <c r="L39" s="40">
+      <c r="L39" s="34">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="M39" s="40">
+      <c r="M39" s="34">
         <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
-      <c r="N39" s="40">
+      <c r="N39" s="34">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="O39" s="40">
+      <c r="O39" s="34">
         <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
-      <c r="P39" s="40">
+      <c r="P39" s="34">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="Q39" s="40">
+      <c r="Q39" s="34">
         <f t="shared" si="3"/>
         <v>27.5</v>
       </c>
-      <c r="R39" s="40">
+      <c r="R39" s="34">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="S39" s="40">
+      <c r="S39" s="34">
         <f t="shared" si="3"/>
         <v>16.5</v>
       </c>
-      <c r="T39" s="40">
+      <c r="T39" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="U39" s="40">
+      <c r="U39" s="34">
         <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
-      <c r="V39" s="40">
+      <c r="V39" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W39" s="41"/>
-      <c r="X39" s="42"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4154,7 +4180,7 @@
       <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
